--- a/dax-find-spikes-daily-sales/powerbi/DummyData.xlsx
+++ b/dax-find-spikes-daily-sales/powerbi/DummyData.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corresilience\MyTrials\JIRA\Anomaly-Dec8-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saurabhd\MyTrials\MyGithubPage\dax-find-spikes-daily-sales\powerbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D01D52-4E96-424C-A647-6BAE7EBEBA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEFABD-39FE-4595-A0CD-119A2F14AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15540" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{54577794-3ED7-4157-AADF-842CD59B2D13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54577794-3ED7-4157-AADF-842CD59B2D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
-    <sheet name="Sales (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>userid</t>
   </si>
@@ -50,9 +49,6 @@
   </si>
   <si>
     <t>john</t>
-  </si>
-  <si>
-    <t>New column</t>
   </si>
 </sst>
 </file>
@@ -99,20 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
@@ -134,21 +126,8 @@
   <autoFilter ref="A1:C1048576" xr:uid="{54A91562-FF8D-45C3-97E2-D38CD52F9EB0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AFA1F0C0-F89C-49F9-85B4-F0E90AC11C6A}" name="userid"/>
-    <tableColumn id="2" xr3:uid="{9114FD23-BE71-4985-9B08-98E6977777F7}" name="date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9114FD23-BE71-4985-9B08-98E6977777F7}" name="date" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DBB07B42-BF9D-4098-92A7-25365BD9EF85}" name="sales"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E9C31CFA-7417-411A-93C6-5586D6DC7441}" name="Table13" displayName="Table13" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576" xr:uid="{54A91562-FF8D-45C3-97E2-D38CD52F9EB0}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A496AD5A-ECB8-42E5-9479-569649B61EED}" name="userid"/>
-    <tableColumn id="2" xr3:uid="{ADA72A8A-69FF-4BDF-907F-BACB9BEFDE0C}" name="date" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E1CFE557-F1C4-49DE-B413-C860057451C6}" name="sales"/>
-    <tableColumn id="4" xr3:uid="{971FC1E7-85DA-4B97-ADC8-F2847E29B826}" name="New column"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -453,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D98BB40-BFA2-428A-BDCF-E05B9AD02E25}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -629,284 +608,6 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45662</v>
-      </c>
-      <c r="C16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45663</v>
-      </c>
-      <c r="C17">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45664</v>
-      </c>
-      <c r="C18">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45665</v>
-      </c>
-      <c r="C19">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45666</v>
-      </c>
-      <c r="C20">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>45667</v>
-      </c>
-      <c r="C21">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45668</v>
-      </c>
-      <c r="C22">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45569807-B690-43A7-A13B-80AAD9CB9776}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45658</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45659</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45660</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45661</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45662</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45663</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45664</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45665</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45666</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45667</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45658</v>
-      </c>
-      <c r="C12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45659</v>
-      </c>
-      <c r="C13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45660</v>
-      </c>
-      <c r="C14">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45661</v>
-      </c>
-      <c r="C15">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
